--- a/Log Files/Infrared calibrations.xlsx
+++ b/Log Files/Infrared calibrations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoa-my.sharepoint.com/personal/cpar500_uoa_auckland_ac_nz/Documents/Uni/Year 4 Sem 1/MECHENG 706/Project 2/706P2/Log Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{8D1BAA61-3D06-42C0-B51D-840D9706842E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AEC87E5-ACE8-421F-A08F-0D0AB4883E3D}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{8D1BAA61-3D06-42C0-B51D-840D9706842E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B293A081-E546-4FEF-9236-68E67C7C2299}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C33A13F8-AF3B-4A4D-9D86-002B6CC670A7}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,7 +176,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -197,7 +197,96 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.242344706911636E-3"/>
+                  <c:y val="-0.18373812184368044"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$11</c:f>
               <c:numCache>
@@ -232,45 +321,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>649</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>514</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>259</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -534,7 +584,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -555,7 +605,96 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8309305539706087E-3"/>
+                  <c:y val="-0.17093388078965377"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>147</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$11</c:f>
               <c:numCache>
@@ -590,45 +729,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>644</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>267</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -892,7 +992,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -913,7 +1013,84 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.9823627119073885E-2"/>
+                  <c:y val="-0.24163301369507029"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
@@ -936,33 +1113,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>441</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1226,7 +1376,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1247,7 +1397,84 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.5078497132302906E-2"/>
+                  <c:y val="-0.17234236809507722"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
@@ -1270,33 +1497,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>445</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>236</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4187,19 +4387,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCB2651-C0BB-4F44-96C5-405A873EC83E}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A7" activeCellId="1" sqref="E1:E7 A1:A7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4216,7 +4416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -4233,7 +4433,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -4250,7 +4450,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15</v>
       </c>
@@ -4267,7 +4467,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
@@ -4284,7 +4484,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>25</v>
       </c>
@@ -4301,7 +4501,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>30</v>
       </c>
@@ -4321,7 +4521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>35</v>
       </c>
@@ -4332,7 +4532,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>40</v>
       </c>
@@ -4343,7 +4543,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>45</v>
       </c>
@@ -4354,7 +4554,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>50</v>
       </c>
@@ -4365,22 +4565,22 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>120</v>
       </c>

--- a/Log Files/Infrared calibrations.xlsx
+++ b/Log Files/Infrared calibrations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoa-my.sharepoint.com/personal/cpar500_uoa_auckland_ac_nz/Documents/Uni/Year 4 Sem 1/MECHENG 706/Project 2/706P2/Log Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="8_{8D1BAA61-3D06-42C0-B51D-840D9706842E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B293A081-E546-4FEF-9236-68E67C7C2299}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="8_{8D1BAA61-3D06-42C0-B51D-840D9706842E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD2EA7A0-2D22-4765-91A2-9540AEB75AE9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C33A13F8-AF3B-4A4D-9D86-002B6CC670A7}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{C33A13F8-AF3B-4A4D-9D86-002B6CC670A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -621,8 +621,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.8309305539706087E-3"/>
-                  <c:y val="-0.17093388078965377"/>
+                  <c:x val="2.7370383049944845E-2"/>
+                  <c:y val="-0.22760877662569406"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4387,7 +4387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCB2651-C0BB-4F44-96C5-405A873EC83E}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
       <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
